--- a/video/T字路口航拍-2x.xlsx
+++ b/video/T字路口航拍-2x.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,6 @@
           <t>WS_up</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ER_down</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ER_up</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -462,16 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -481,73 +465,57 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>van</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>bus</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
+          <t>feright car</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>feright car</t>
+          <t>van</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/video/T字路口航拍-2x.xlsx
+++ b/video/T字路口航拍-2x.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,86 +436,144 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>WS_down</t>
+          <t>total</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WS_up</t>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>feright car</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bus</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>van</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>truck</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>WS_down</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>WS_up</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>bus</t>
+          <t>WL_down</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>WL_up</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>feright car</t>
+          <t>ER_down</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>van</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+          <t>ER_up</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
